--- a/DATA_goal/Junction_Flooding_115.xlsx
+++ b/DATA_goal/Junction_Flooding_115.xlsx
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
+    <col width="6" customWidth="1" min="2" max="2"/>
     <col width="6" customWidth="1" min="3" max="3"/>
     <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="6" max="6"/>
+    <col width="6" customWidth="1" min="7" max="7"/>
+    <col width="6" customWidth="1" min="8" max="8"/>
+    <col width="6" customWidth="1" min="9" max="9"/>
     <col width="6" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
+    <col width="6" customWidth="1" min="11" max="11"/>
+    <col width="6" customWidth="1" min="12" max="12"/>
+    <col width="6" customWidth="1" min="13" max="13"/>
     <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
-    <col width="7" customWidth="1" min="17" max="17"/>
+    <col width="6" customWidth="1" min="15" max="15"/>
+    <col width="6" customWidth="1" min="16" max="16"/>
+    <col width="6" customWidth="1" min="17" max="17"/>
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="20" max="20"/>
+    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="6" customWidth="1" min="22" max="22"/>
+    <col width="6" customWidth="1" min="23" max="23"/>
+    <col width="6" customWidth="1" min="24" max="24"/>
     <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
+    <col width="6" customWidth="1" min="26" max="26"/>
+    <col width="6" customWidth="1" min="27" max="27"/>
     <col width="6" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
+    <col width="6" customWidth="1" min="29" max="29"/>
+    <col width="6" customWidth="1" min="30" max="30"/>
     <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
+    <col width="6" customWidth="1" min="32" max="32"/>
     <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="6" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,103 +655,103 @@
         <v>41547.34027777778</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>4.8</v>
+        <v>0.48</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>5.06</v>
+        <v>0.51</v>
       </c>
       <c r="D2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E2" s="4" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="F2" s="4" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="G2" s="4" t="n">
+        <v>0.42</v>
+      </c>
+      <c r="H2" s="4" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+      <c r="I2" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="J2" s="4" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="K2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="L2" s="4" t="n">
+        <v>0.68</v>
+      </c>
+      <c r="M2" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="N2" s="4" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="O2" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="P2" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="Q2" s="4" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="R2" s="4" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="S2" s="4" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="T2" s="4" t="n">
+        <v>5.12</v>
+      </c>
+      <c r="U2" s="4" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="V2" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="W2" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="X2" s="4" t="n">
+        <v>0.44</v>
+      </c>
+      <c r="Y2" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z2" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AA2" s="4" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="AB2" s="4" t="n">
+        <v>0.53</v>
+      </c>
+      <c r="AC2" s="4" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AD2" s="4" t="n">
+        <v>0.48</v>
+      </c>
+      <c r="AE2" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="AF2" s="4" t="n">
+        <v>0.61</v>
+      </c>
+      <c r="AG2" s="4" t="n">
         <v>0.21</v>
       </c>
-      <c r="E2" s="4" t="n">
-        <v>11.05</v>
-      </c>
-      <c r="F2" s="4" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="G2" s="4" t="n">
-        <v>4.15</v>
-      </c>
-      <c r="H2" s="4" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="I2" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="J2" s="4" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="K2" s="4" t="n">
-        <v>4.8</v>
-      </c>
-      <c r="L2" s="4" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="M2" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="N2" s="4" t="n">
-        <v>0.68</v>
-      </c>
-      <c r="O2" s="4" t="n">
-        <v>3.27</v>
-      </c>
-      <c r="P2" s="4" t="n">
-        <v>5.31</v>
-      </c>
-      <c r="Q2" s="4" t="n">
-        <v>2.72</v>
-      </c>
-      <c r="R2" s="4" t="n">
-        <v>0.55</v>
-      </c>
-      <c r="S2" s="4" t="n">
-        <v>0.28</v>
-      </c>
-      <c r="T2" s="4" t="n">
-        <v>51.2</v>
-      </c>
-      <c r="U2" s="4" t="n">
-        <v>10.16</v>
-      </c>
-      <c r="V2" s="4" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="W2" s="4" t="n">
-        <v>5.73</v>
-      </c>
-      <c r="X2" s="4" t="n">
-        <v>4.37</v>
-      </c>
-      <c r="Y2" s="4" t="n">
-        <v>0.51</v>
-      </c>
-      <c r="Z2" s="4" t="n">
-        <v>7.75</v>
-      </c>
-      <c r="AA2" s="4" t="n">
-        <v>1.94</v>
-      </c>
-      <c r="AB2" s="4" t="n">
-        <v>5.27</v>
-      </c>
-      <c r="AC2" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="AD2" s="4" t="n">
-        <v>4.85</v>
-      </c>
-      <c r="AE2" s="4" t="n">
-        <v>0.19</v>
-      </c>
-      <c r="AF2" s="4" t="n">
-        <v>6.12</v>
-      </c>
-      <c r="AG2" s="4" t="n">
-        <v>2.06</v>
-      </c>
       <c r="AH2" s="4" t="n">
-        <v>4.85</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>41547.34722222222</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>9.890000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>7.84</v>
+        <v>0.78</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>0.37</v>
+        <v>0.04</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>21.45</v>
+        <v>2.15</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>17.74</v>
+        <v>1.77</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>7.77</v>
+        <v>0.78</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>25.55</v>
+        <v>2.55</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>11.49</v>
+        <v>1.15</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>5.16</v>
+        <v>0.52</v>
       </c>
       <c r="K3" s="4" t="n">
-        <v>8.31</v>
+        <v>0.83</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>9.51</v>
+        <v>0.95</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>8.56</v>
+        <v>0.86</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>2.15</v>
+        <v>0.21</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>7.33</v>
+        <v>0.73</v>
       </c>
       <c r="P3" s="4" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>0.62</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="S3" s="4" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="T3" s="4" t="n">
         <v>10.9</v>
       </c>
-      <c r="Q3" s="4" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.2</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.44</v>
-      </c>
-      <c r="T3" s="4" t="n">
-        <v>109.01</v>
-      </c>
       <c r="U3" s="4" t="n">
-        <v>21.07</v>
+        <v>2.11</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>13.97</v>
+        <v>1.4</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>7.93</v>
+        <v>0.79</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>1</v>
+        <v>0.1</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>14.5</v>
+        <v>1.45</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>5.64</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>6.58</v>
+        <v>0.66</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>6.04</v>
+        <v>0.6</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>9.24</v>
+        <v>0.92</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>22.79</v>
+        <v>2.28</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>3.9</v>
+        <v>0.39</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>9.08</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>41547.35416666666</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>12.79</v>
+        <v>1.28</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>9.81</v>
+        <v>0.98</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.46</v>
+        <v>0.05</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>27.69</v>
+        <v>2.77</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>22.88</v>
+        <v>2.29</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.01</v>
+        <v>1</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>37.15</v>
+        <v>3.71</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>15.11</v>
+        <v>1.51</v>
       </c>
       <c r="J4" s="4" t="n">
-        <v>6.83</v>
+        <v>0.68</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.53</v>
+        <v>1.05</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>11.65</v>
+        <v>1.16</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>11.42</v>
+        <v>1.14</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>2.97</v>
+        <v>0.3</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>9.69</v>
+        <v>0.97</v>
       </c>
       <c r="P4" s="4" t="n">
-        <v>14.17</v>
+        <v>1.42</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>8.18</v>
+        <v>0.82</v>
       </c>
       <c r="R4" s="4" t="n">
-        <v>0.16</v>
+        <v>0.02</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.5</v>
+        <v>0.05</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>143.5</v>
+        <v>14.35</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>27.51</v>
+        <v>2.75</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>8.92</v>
+        <v>0.89</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>18.49</v>
+        <v>1.85</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.08</v>
+        <v>1.01</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.3</v>
+        <v>0.13</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>19.27</v>
+        <v>1.93</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>7.68</v>
+        <v>0.77</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>7.8</v>
+        <v>0.78</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>8.1</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>11.82</v>
+        <v>1.18</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.02</v>
+        <v>0</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>33.56</v>
+        <v>3.36</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.09</v>
+        <v>0.51</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>41547.36111111111</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>3.16</v>
+        <v>0.32</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.17</v>
+        <v>0.02</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>8.65</v>
+        <v>0.86</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>7.13</v>
+        <v>0.71</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>3.12</v>
+        <v>0.31</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>16</v>
+        <v>1.6</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>4.59</v>
+        <v>0.46</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>2.16</v>
+        <v>0.22</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>3.37</v>
+        <v>0.34</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>3.85</v>
+        <v>0.38</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>3.43</v>
+        <v>0.34</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>0.83</v>
+        <v>0.08</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>2.91</v>
+        <v>0.29</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>4.48</v>
+        <v>0.45</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>2.53</v>
+        <v>0.25</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.01</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.23</v>
+        <v>0.02</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>39.47</v>
+        <v>3.95</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>8.68</v>
+        <v>0.87</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>2.66</v>
+        <v>0.27</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>3.27</v>
+        <v>0.33</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.4</v>
+        <v>0.04</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>8.130000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>2.2</v>
+        <v>0.22</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>2.73</v>
+        <v>0.27</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>2.41</v>
+        <v>0.24</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>14.74</v>
+        <v>1.47</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>1.51</v>
+        <v>0.15</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>3.69</v>
+        <v>0.37</v>
       </c>
     </row>
     <row r="6">
@@ -1071,103 +1071,103 @@
         <v>41547.36805555555</v>
       </c>
       <c r="B6" s="4" t="n">
-        <v>4.89</v>
+        <v>0.49</v>
       </c>
       <c r="C6" s="4" t="n">
-        <v>3.76</v>
+        <v>0.38</v>
       </c>
       <c r="D6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>0.87</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>0.57</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>0.26</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>0.54</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>4.97</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>0.6899999999999999</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>0.77</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>0.45</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AG6" s="4" t="n">
         <v>0.19</v>
       </c>
-      <c r="E6" s="4" t="n">
-        <v>10.51</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>3.79</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>15.13</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>5.67</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>2.58</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>4.04</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>4.51</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>4.28</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.06</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>49.74</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>10.33</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>3.32</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>6.94</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>3.86</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>0.49</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>2.81</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>3.02</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>4.53</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.01</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>13.53</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>1.88</v>
-      </c>
       <c r="AH6" s="4" t="n">
-        <v>4.45</v>
+        <v>0.44</v>
       </c>
     </row>
     <row r="7">
@@ -1175,103 +1175,103 @@
         <v>41547.375</v>
       </c>
       <c r="B7" s="4" t="n">
-        <v>4.6</v>
+        <v>0.46</v>
       </c>
       <c r="C7" s="4" t="n">
-        <v>3.52</v>
+        <v>0.35</v>
       </c>
       <c r="D7" s="4" t="n">
-        <v>0.18</v>
+        <v>0.02</v>
       </c>
       <c r="E7" s="4" t="n">
-        <v>9.880000000000001</v>
+        <v>0.99</v>
       </c>
       <c r="F7" s="4" t="n">
-        <v>8.140000000000001</v>
+        <v>0.8100000000000001</v>
       </c>
       <c r="G7" s="4" t="n">
-        <v>3.56</v>
+        <v>0.36</v>
       </c>
       <c r="H7" s="4" t="n">
-        <v>14.15</v>
+        <v>1.42</v>
       </c>
       <c r="I7" s="4" t="n">
-        <v>5.35</v>
+        <v>0.53</v>
       </c>
       <c r="J7" s="4" t="n">
-        <v>2.44</v>
+        <v>0.24</v>
       </c>
       <c r="K7" s="4" t="n">
-        <v>3.78</v>
+        <v>0.38</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>4.2</v>
+        <v>0.42</v>
       </c>
       <c r="M7" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="N7" s="4" t="n">
-        <v>1.02</v>
+        <v>0.1</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>3.42</v>
+        <v>0.34</v>
       </c>
       <c r="P7" s="4" t="n">
-        <v>5.06</v>
+        <v>0.51</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>2.92</v>
+        <v>0.29</v>
       </c>
       <c r="R7" s="4" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="S7" s="4" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="T7" s="4" t="n">
+        <v>4.63</v>
+      </c>
+      <c r="U7" s="4" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="V7" s="4" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="W7" s="4" t="n">
+        <v>0.66</v>
+      </c>
+      <c r="X7" s="4" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="Y7" s="4" t="n">
         <v>0.05</v>
       </c>
-      <c r="S7" s="4" t="n">
-        <v>0.22</v>
-      </c>
-      <c r="T7" s="4" t="n">
-        <v>46.34</v>
-      </c>
-      <c r="U7" s="4" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="V7" s="4" t="n">
-        <v>3.14</v>
-      </c>
-      <c r="W7" s="4" t="n">
-        <v>6.58</v>
-      </c>
-      <c r="X7" s="4" t="n">
-        <v>3.62</v>
-      </c>
-      <c r="Y7" s="4" t="n">
-        <v>0.46</v>
-      </c>
       <c r="Z7" s="4" t="n">
-        <v>7.21</v>
+        <v>0.72</v>
       </c>
       <c r="AA7" s="4" t="n">
-        <v>2.67</v>
+        <v>0.27</v>
       </c>
       <c r="AB7" s="4" t="n">
-        <v>2.87</v>
+        <v>0.29</v>
       </c>
       <c r="AC7" s="4" t="n">
-        <v>2.86</v>
+        <v>0.29</v>
       </c>
       <c r="AD7" s="4" t="n">
-        <v>4.25</v>
+        <v>0.42</v>
       </c>
       <c r="AE7" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF7" s="4" t="n">
-        <v>12.71</v>
+        <v>1.27</v>
       </c>
       <c r="AG7" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="AH7" s="4" t="n">
-        <v>4.17</v>
+        <v>0.42</v>
       </c>
     </row>
     <row r="8">
@@ -1279,103 +1279,103 @@
         <v>41547.38194444445</v>
       </c>
       <c r="B8" s="4" t="n">
-        <v>16.31</v>
+        <v>1.63</v>
       </c>
       <c r="C8" s="4" t="n">
-        <v>12.3</v>
+        <v>1.23</v>
       </c>
       <c r="D8" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="E8" s="4" t="n">
-        <v>35.37</v>
+        <v>3.54</v>
       </c>
       <c r="F8" s="4" t="n">
-        <v>29.22</v>
+        <v>2.92</v>
       </c>
       <c r="G8" s="4" t="n">
-        <v>12.78</v>
+        <v>1.28</v>
       </c>
       <c r="H8" s="4" t="n">
-        <v>45.44</v>
+        <v>4.54</v>
       </c>
       <c r="I8" s="4" t="n">
-        <v>19.56</v>
+        <v>1.96</v>
       </c>
       <c r="J8" s="4" t="n">
-        <v>8.81</v>
+        <v>0.88</v>
       </c>
       <c r="K8" s="4" t="n">
-        <v>13.29</v>
+        <v>1.33</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>14.39</v>
+        <v>1.44</v>
       </c>
       <c r="M8" s="4" t="n">
-        <v>14.89</v>
+        <v>1.49</v>
       </c>
       <c r="N8" s="4" t="n">
-        <v>3.98</v>
+        <v>0.4</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>12.61</v>
+        <v>1.26</v>
       </c>
       <c r="P8" s="4" t="n">
-        <v>18.16</v>
+        <v>1.82</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>10.52</v>
+        <v>1.05</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>0.15</v>
+        <v>0.01</v>
       </c>
       <c r="S8" s="4" t="n">
-        <v>0.55</v>
+        <v>0.06</v>
       </c>
       <c r="T8" s="4" t="n">
-        <v>185.98</v>
+        <v>18.6</v>
       </c>
       <c r="U8" s="4" t="n">
-        <v>35.29</v>
+        <v>3.53</v>
       </c>
       <c r="V8" s="4" t="n">
-        <v>11.62</v>
+        <v>1.16</v>
       </c>
       <c r="W8" s="4" t="n">
-        <v>23.89</v>
+        <v>2.39</v>
       </c>
       <c r="X8" s="4" t="n">
-        <v>12.72</v>
+        <v>1.27</v>
       </c>
       <c r="Y8" s="4" t="n">
-        <v>1.67</v>
+        <v>0.17</v>
       </c>
       <c r="Z8" s="4" t="n">
-        <v>23.06</v>
+        <v>2.31</v>
       </c>
       <c r="AA8" s="4" t="n">
-        <v>10.18</v>
+        <v>1.02</v>
       </c>
       <c r="AB8" s="4" t="n">
-        <v>9.380000000000001</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AC8" s="4" t="n">
-        <v>10.6</v>
+        <v>1.06</v>
       </c>
       <c r="AD8" s="4" t="n">
-        <v>14.99</v>
+        <v>1.5</v>
       </c>
       <c r="AE8" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF8" s="4" t="n">
-        <v>40.94</v>
+        <v>4.09</v>
       </c>
       <c r="AG8" s="4" t="n">
-        <v>6.61</v>
+        <v>0.66</v>
       </c>
       <c r="AH8" s="4" t="n">
-        <v>14.75</v>
+        <v>1.47</v>
       </c>
     </row>
     <row r="9">
@@ -1383,103 +1383,103 @@
         <v>41547.38888888889</v>
       </c>
       <c r="B9" s="4" t="n">
-        <v>7.46</v>
+        <v>0.75</v>
       </c>
       <c r="C9" s="4" t="n">
-        <v>5.65</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="D9" s="4" t="n">
-        <v>0.28</v>
+        <v>0.03</v>
       </c>
       <c r="E9" s="4" t="n">
-        <v>16.13</v>
+        <v>1.61</v>
       </c>
       <c r="F9" s="4" t="n">
-        <v>13.32</v>
+        <v>1.33</v>
       </c>
       <c r="G9" s="4" t="n">
-        <v>5.83</v>
+        <v>0.58</v>
       </c>
       <c r="H9" s="4" t="n">
-        <v>25.61</v>
+        <v>2.56</v>
       </c>
       <c r="I9" s="4" t="n">
-        <v>8.869999999999999</v>
+        <v>0.89</v>
       </c>
       <c r="J9" s="4" t="n">
-        <v>4.04</v>
+        <v>0.4</v>
       </c>
       <c r="K9" s="4" t="n">
-        <v>6.1</v>
+        <v>0.61</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>6.64</v>
+        <v>0.66</v>
       </c>
       <c r="M9" s="4" t="n">
-        <v>6.74</v>
+        <v>0.67</v>
       </c>
       <c r="N9" s="4" t="n">
-        <v>1.77</v>
+        <v>0.18</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>5.7</v>
+        <v>0.57</v>
       </c>
       <c r="P9" s="4" t="n">
-        <v>8.32</v>
+        <v>0.83</v>
       </c>
       <c r="Q9" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="R9" s="4" t="n">
-        <v>0.07000000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="S9" s="4" t="n">
-        <v>0.29</v>
+        <v>0.03</v>
       </c>
       <c r="T9" s="4" t="n">
-        <v>80.73999999999999</v>
+        <v>8.07</v>
       </c>
       <c r="U9" s="4" t="n">
-        <v>16.22</v>
+        <v>1.62</v>
       </c>
       <c r="V9" s="4" t="n">
-        <v>5.25</v>
+        <v>0.53</v>
       </c>
       <c r="W9" s="4" t="n">
-        <v>11</v>
+        <v>1.1</v>
       </c>
       <c r="X9" s="4" t="n">
-        <v>5.86</v>
+        <v>0.59</v>
       </c>
       <c r="Y9" s="4" t="n">
-        <v>0.76</v>
+        <v>0.08</v>
       </c>
       <c r="Z9" s="4" t="n">
-        <v>12.52</v>
+        <v>1.25</v>
       </c>
       <c r="AA9" s="4" t="n">
-        <v>4.56</v>
+        <v>0.46</v>
       </c>
       <c r="AB9" s="4" t="n">
-        <v>4.39</v>
+        <v>0.44</v>
       </c>
       <c r="AC9" s="4" t="n">
-        <v>4.79</v>
+        <v>0.48</v>
       </c>
       <c r="AD9" s="4" t="n">
-        <v>6.87</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="AE9" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF9" s="4" t="n">
-        <v>23.45</v>
+        <v>2.34</v>
       </c>
       <c r="AG9" s="4" t="n">
-        <v>2.98</v>
+        <v>0.3</v>
       </c>
       <c r="AH9" s="4" t="n">
-        <v>6.76</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="10">
@@ -1487,103 +1487,103 @@
         <v>41547.39583333334</v>
       </c>
       <c r="B10" s="4" t="n">
-        <v>17.26</v>
+        <v>1.73</v>
       </c>
       <c r="C10" s="4" t="n">
-        <v>13</v>
+        <v>1.3</v>
       </c>
       <c r="D10" s="4" t="n">
-        <v>0.6</v>
+        <v>0.06</v>
       </c>
       <c r="E10" s="4" t="n">
-        <v>37.45</v>
+        <v>3.74</v>
       </c>
       <c r="F10" s="4" t="n">
-        <v>30.95</v>
+        <v>3.09</v>
       </c>
       <c r="G10" s="4" t="n">
-        <v>13.54</v>
+        <v>1.35</v>
       </c>
       <c r="H10" s="4" t="n">
-        <v>50.19</v>
+        <v>5.02</v>
       </c>
       <c r="I10" s="4" t="n">
-        <v>20.75</v>
+        <v>2.07</v>
       </c>
       <c r="J10" s="4" t="n">
-        <v>9.35</v>
+        <v>0.93</v>
       </c>
       <c r="K10" s="4" t="n">
-        <v>14.05</v>
+        <v>1.4</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>15.18</v>
+        <v>1.52</v>
       </c>
       <c r="M10" s="4" t="n">
-        <v>15.8</v>
+        <v>1.58</v>
       </c>
       <c r="N10" s="4" t="n">
-        <v>4.24</v>
+        <v>0.42</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>13.38</v>
+        <v>1.34</v>
       </c>
       <c r="P10" s="4" t="n">
-        <v>19.24</v>
+        <v>1.92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>11.14</v>
+        <v>1.11</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>0.15</v>
+        <v>0.02</v>
       </c>
       <c r="S10" s="4" t="n">
-        <v>0.57</v>
+        <v>0.06</v>
       </c>
       <c r="T10" s="4" t="n">
-        <v>197.46</v>
+        <v>19.75</v>
       </c>
       <c r="U10" s="4" t="n">
-        <v>37.46</v>
+        <v>3.75</v>
       </c>
       <c r="V10" s="4" t="n">
-        <v>12.34</v>
+        <v>1.23</v>
       </c>
       <c r="W10" s="4" t="n">
-        <v>25.38</v>
+        <v>2.54</v>
       </c>
       <c r="X10" s="4" t="n">
-        <v>13.45</v>
+        <v>1.34</v>
       </c>
       <c r="Y10" s="4" t="n">
-        <v>1.76</v>
+        <v>0.18</v>
       </c>
       <c r="Z10" s="4" t="n">
-        <v>25.01</v>
+        <v>2.5</v>
       </c>
       <c r="AA10" s="4" t="n">
-        <v>10.83</v>
+        <v>1.08</v>
       </c>
       <c r="AB10" s="4" t="n">
-        <v>9.85</v>
+        <v>0.98</v>
       </c>
       <c r="AC10" s="4" t="n">
-        <v>11.25</v>
+        <v>1.13</v>
       </c>
       <c r="AD10" s="4" t="n">
-        <v>15.86</v>
+        <v>1.59</v>
       </c>
       <c r="AE10" s="4" t="n">
         <v>0</v>
       </c>
       <c r="AF10" s="4" t="n">
-        <v>45.32</v>
+        <v>4.53</v>
       </c>
       <c r="AG10" s="4" t="n">
-        <v>7.02</v>
+        <v>0.7</v>
       </c>
       <c r="AH10" s="4" t="n">
-        <v>15.6</v>
+        <v>1.56</v>
       </c>
     </row>
     <row r="11">

--- a/DATA_goal/Junction_Flooding_115.xlsx
+++ b/DATA_goal/Junction_Flooding_115.xlsx
@@ -462,7 +462,7 @@
     <col width="6" customWidth="1" min="18" max="18"/>
     <col width="6" customWidth="1" min="19" max="19"/>
     <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="6" customWidth="1" min="21" max="21"/>
+    <col width="7" customWidth="1" min="21" max="21"/>
     <col width="7" customWidth="1" min="22" max="22"/>
     <col width="7" customWidth="1" min="23" max="23"/>
     <col width="7" customWidth="1" min="24" max="24"/>
@@ -655,103 +655,103 @@
         <v>44796.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>1.92</v>
+        <v>19.22</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>1.29</v>
+        <v>12.9</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>0.4</v>
+        <v>4.04</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>4.08</v>
+        <v>40.81</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>3.28</v>
+        <v>32.82</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>1.51</v>
+        <v>15.12</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>4.8</v>
+        <v>47.99</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>2.33</v>
+        <v>23.27</v>
       </c>
       <c r="J2" s="4" t="n">
-        <v>0.97</v>
+        <v>9.710000000000001</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>1.47</v>
+        <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>1.61</v>
+        <v>16.08</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>1.67</v>
+        <v>16.74</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>0.48</v>
+        <v>4.83</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>1.5</v>
+        <v>15.04</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>2.1</v>
+        <v>20.99</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>1.28</v>
+        <v>12.85</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>0.22</v>
+        <v>2.25</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>22.15</v>
+        <v>221.55</v>
       </c>
       <c r="U2" s="4" t="n">
-        <v>4.18</v>
+        <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>1.39</v>
+        <v>13.88</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>2.76</v>
+        <v>27.55</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>1.41</v>
+        <v>14.06</v>
       </c>
       <c r="Y2" s="4" t="n">
-        <v>0.3</v>
+        <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>2.43</v>
+        <v>24.31</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>1.23</v>
+        <v>12.26</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>1.11</v>
+        <v>11.13</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>1.3</v>
+        <v>13.05</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>1.66</v>
+        <v>16.56</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>0.35</v>
+        <v>3.46</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>4.26</v>
+        <v>42.56</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>0.76</v>
+        <v>7.65</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>1.74</v>
+        <v>17.35</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44796.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>1.44</v>
+        <v>14.41</v>
       </c>
       <c r="C3" s="4" t="n">
+        <v>10.11</v>
+      </c>
+      <c r="D3" s="4" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="E3" s="4" t="n">
+        <v>31.11</v>
+      </c>
+      <c r="F3" s="4" t="n">
+        <v>25.12</v>
+      </c>
+      <c r="G3" s="4" t="n">
+        <v>11.34</v>
+      </c>
+      <c r="H3" s="4" t="n">
+        <v>44.4</v>
+      </c>
+      <c r="I3" s="4" t="n">
+        <v>17.45</v>
+      </c>
+      <c r="J3" s="4" t="n">
+        <v>7.51</v>
+      </c>
+      <c r="K3" s="4" t="n">
+        <v>11.08</v>
+      </c>
+      <c r="L3" s="4" t="n">
+        <v>12.44</v>
+      </c>
+      <c r="M3" s="4" t="n">
+        <v>12.98</v>
+      </c>
+      <c r="N3" s="4" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="O3" s="4" t="n">
+        <v>11.28</v>
+      </c>
+      <c r="P3" s="4" t="n">
+        <v>15.87</v>
+      </c>
+      <c r="Q3" s="4" t="n">
+        <v>9.75</v>
+      </c>
+      <c r="R3" s="4" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="S3" s="4" t="n">
         <v>1.01</v>
       </c>
-      <c r="D3" s="4" t="n">
-        <v>0.17</v>
-      </c>
-      <c r="E3" s="4" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="F3" s="4" t="n">
-        <v>2.51</v>
-      </c>
-      <c r="G3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="H3" s="4" t="n">
-        <v>4.44</v>
-      </c>
-      <c r="I3" s="4" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="J3" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="K3" s="4" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="L3" s="4" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="M3" s="4" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="N3" s="4" t="n">
-        <v>0.36</v>
-      </c>
-      <c r="O3" s="4" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="P3" s="4" t="n">
-        <v>1.59</v>
-      </c>
-      <c r="Q3" s="4" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="R3" s="4" t="n">
-        <v>0.15</v>
-      </c>
-      <c r="S3" s="4" t="n">
-        <v>0.1</v>
-      </c>
       <c r="T3" s="4" t="n">
-        <v>16.44</v>
+        <v>164.36</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>3.16</v>
+        <v>31.59</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>1.04</v>
+        <v>10.41</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>2.09</v>
+        <v>20.91</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>1.08</v>
+        <v>10.85</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>0.21</v>
+        <v>2.06</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>2.15</v>
+        <v>21.49</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>0.92</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>0.83</v>
+        <v>8.34</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>0.98</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>1.29</v>
+        <v>12.88</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>0.13</v>
+        <v>1.27</v>
       </c>
       <c r="AF3" s="4" t="n">
-        <v>4.04</v>
+        <v>40.43</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>0.57</v>
+        <v>5.75</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>1.3</v>
+        <v>13.02</v>
       </c>
     </row>
     <row r="4">
@@ -863,103 +863,103 @@
         <v>44796.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>1.39</v>
+        <v>13.93</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>0.12</v>
+        <v>1.24</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>3.02</v>
+        <v>30.19</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>2.45</v>
+        <v>24.51</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>1.1</v>
+        <v>10.96</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>4.3</v>
+        <v>43.03</v>
       </c>
       <c r="I4" s="4" t="n">
-        <v>1.69</v>
+        <v>16.87</v>
       </c>
       <c r="J4" s="4" t="n">
+        <v>7.36</v>
+      </c>
+      <c r="K4" s="4" t="n">
+        <v>10.84</v>
+      </c>
+      <c r="L4" s="4" t="n">
+        <v>12.11</v>
+      </c>
+      <c r="M4" s="4" t="n">
+        <v>12.69</v>
+      </c>
+      <c r="N4" s="4" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="O4" s="4" t="n">
+        <v>10.9</v>
+      </c>
+      <c r="P4" s="4" t="n">
+        <v>15.41</v>
+      </c>
+      <c r="Q4" s="4" t="n">
+        <v>9.359999999999999</v>
+      </c>
+      <c r="R4" s="4" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="S4" s="4" t="n">
         <v>0.74</v>
       </c>
-      <c r="K4" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="L4" s="4" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="M4" s="4" t="n">
-        <v>1.27</v>
-      </c>
-      <c r="N4" s="4" t="n">
-        <v>0.35</v>
-      </c>
-      <c r="O4" s="4" t="n">
-        <v>1.09</v>
-      </c>
-      <c r="P4" s="4" t="n">
-        <v>1.54</v>
-      </c>
-      <c r="Q4" s="4" t="n">
-        <v>0.9399999999999999</v>
-      </c>
-      <c r="R4" s="4" t="n">
-        <v>0.1</v>
-      </c>
-      <c r="S4" s="4" t="n">
-        <v>0.07000000000000001</v>
-      </c>
       <c r="T4" s="4" t="n">
-        <v>15.86</v>
+        <v>158.63</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>3.05</v>
+        <v>30.51</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>1.01</v>
+        <v>10.06</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>2.03</v>
+        <v>20.31</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>1.06</v>
+        <v>10.61</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>0.18</v>
+        <v>1.83</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>2.07</v>
+        <v>20.72</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>0.89</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>0.8</v>
+        <v>8</v>
       </c>
       <c r="AC4" s="4" t="n">
-        <v>0.9399999999999999</v>
+        <v>9.380000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.61</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.08</v>
+        <v>0.77</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>3.9</v>
+        <v>39.03</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>5.59</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>1.26</v>
+        <v>12.58</v>
       </c>
     </row>
     <row r="5">
@@ -967,103 +967,103 @@
         <v>44796.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>0.96</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.09</v>
+        <v>0.88</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>2.08</v>
+        <v>20.83</v>
       </c>
       <c r="F5" s="4" t="n">
-        <v>1.69</v>
+        <v>16.86</v>
       </c>
       <c r="G5" s="4" t="n">
+        <v>7.56</v>
+      </c>
+      <c r="H5" s="4" t="n">
+        <v>31.17</v>
+      </c>
+      <c r="I5" s="4" t="n">
+        <v>11.63</v>
+      </c>
+      <c r="J5" s="4" t="n">
+        <v>5.07</v>
+      </c>
+      <c r="K5" s="4" t="n">
+        <v>7.42</v>
+      </c>
+      <c r="L5" s="4" t="n">
+        <v>8.369999999999999</v>
+      </c>
+      <c r="M5" s="4" t="n">
+        <v>8.76</v>
+      </c>
+      <c r="N5" s="4" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="O5" s="4" t="n">
+        <v>7.52</v>
+      </c>
+      <c r="P5" s="4" t="n">
+        <v>10.63</v>
+      </c>
+      <c r="Q5" s="4" t="n">
+        <v>6.49</v>
+      </c>
+      <c r="R5" s="4" t="n">
         <v>0.76</v>
       </c>
-      <c r="H5" s="4" t="n">
-        <v>3.12</v>
-      </c>
-      <c r="I5" s="4" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="J5" s="4" t="n">
+      <c r="S5" s="4" t="n">
         <v>0.51</v>
       </c>
-      <c r="K5" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="L5" s="4" t="n">
-        <v>0.84</v>
-      </c>
-      <c r="M5" s="4" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="N5" s="4" t="n">
-        <v>0.24</v>
-      </c>
-      <c r="O5" s="4" t="n">
-        <v>0.75</v>
-      </c>
-      <c r="P5" s="4" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="Q5" s="4" t="n">
-        <v>0.65</v>
-      </c>
-      <c r="R5" s="4" t="n">
-        <v>0.08</v>
-      </c>
-      <c r="S5" s="4" t="n">
-        <v>0.05</v>
-      </c>
       <c r="T5" s="4" t="n">
-        <v>10.71</v>
+        <v>107.13</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>2.11</v>
+        <v>21.1</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>0.6899999999999999</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>1.4</v>
+        <v>14.02</v>
       </c>
       <c r="X5" s="4" t="n">
-        <v>0.73</v>
+        <v>7.31</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>0.13</v>
+        <v>1.29</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>1.48</v>
+        <v>14.82</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>0.61</v>
+        <v>6.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>0.55</v>
+        <v>5.53</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>0.65</v>
+        <v>6.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.06</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>2.84</v>
+        <v>28.35</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>0.38</v>
+        <v>3.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>0.87</v>
+        <v>8.68</v>
       </c>
     </row>
     <row r="6">

--- a/DATA_goal/Junction_Flooding_115.xlsx
+++ b/DATA_goal/Junction_Flooding_115.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -443,39 +443,39 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
     <col width="21" customWidth="1" min="1" max="1"/>
-    <col width="7" customWidth="1" min="2" max="2"/>
-    <col width="7" customWidth="1" min="3" max="3"/>
-    <col width="6" customWidth="1" min="4" max="4"/>
-    <col width="7" customWidth="1" min="5" max="5"/>
-    <col width="7" customWidth="1" min="6" max="6"/>
-    <col width="7" customWidth="1" min="7" max="7"/>
-    <col width="7" customWidth="1" min="8" max="8"/>
-    <col width="7" customWidth="1" min="9" max="9"/>
+    <col width="8" customWidth="1" min="2" max="2"/>
+    <col width="8" customWidth="1" min="3" max="3"/>
+    <col width="7" customWidth="1" min="4" max="4"/>
+    <col width="8" customWidth="1" min="5" max="5"/>
+    <col width="8" customWidth="1" min="6" max="6"/>
+    <col width="8" customWidth="1" min="7" max="7"/>
+    <col width="8" customWidth="1" min="8" max="8"/>
+    <col width="8" customWidth="1" min="9" max="9"/>
     <col width="7" customWidth="1" min="10" max="10"/>
-    <col width="7" customWidth="1" min="11" max="11"/>
-    <col width="7" customWidth="1" min="12" max="12"/>
-    <col width="7" customWidth="1" min="13" max="13"/>
-    <col width="6" customWidth="1" min="14" max="14"/>
-    <col width="7" customWidth="1" min="15" max="15"/>
-    <col width="7" customWidth="1" min="16" max="16"/>
+    <col width="8" customWidth="1" min="11" max="11"/>
+    <col width="8" customWidth="1" min="12" max="12"/>
+    <col width="8" customWidth="1" min="13" max="13"/>
+    <col width="7" customWidth="1" min="14" max="14"/>
+    <col width="8" customWidth="1" min="15" max="15"/>
+    <col width="8" customWidth="1" min="16" max="16"/>
     <col width="7" customWidth="1" min="17" max="17"/>
-    <col width="6" customWidth="1" min="18" max="18"/>
-    <col width="6" customWidth="1" min="19" max="19"/>
-    <col width="8" customWidth="1" min="20" max="20"/>
-    <col width="7" customWidth="1" min="21" max="21"/>
-    <col width="7" customWidth="1" min="22" max="22"/>
-    <col width="7" customWidth="1" min="23" max="23"/>
-    <col width="7" customWidth="1" min="24" max="24"/>
-    <col width="6" customWidth="1" min="25" max="25"/>
-    <col width="7" customWidth="1" min="26" max="26"/>
-    <col width="7" customWidth="1" min="27" max="27"/>
-    <col width="7" customWidth="1" min="28" max="28"/>
-    <col width="7" customWidth="1" min="29" max="29"/>
-    <col width="7" customWidth="1" min="30" max="30"/>
-    <col width="6" customWidth="1" min="31" max="31"/>
-    <col width="7" customWidth="1" min="32" max="32"/>
-    <col width="6" customWidth="1" min="33" max="33"/>
-    <col width="7" customWidth="1" min="34" max="34"/>
+    <col width="7" customWidth="1" min="18" max="18"/>
+    <col width="7" customWidth="1" min="19" max="19"/>
+    <col width="9" customWidth="1" min="20" max="20"/>
+    <col width="8" customWidth="1" min="21" max="21"/>
+    <col width="8" customWidth="1" min="22" max="22"/>
+    <col width="8" customWidth="1" min="23" max="23"/>
+    <col width="8" customWidth="1" min="24" max="24"/>
+    <col width="7" customWidth="1" min="25" max="25"/>
+    <col width="8" customWidth="1" min="26" max="26"/>
+    <col width="8" customWidth="1" min="27" max="27"/>
+    <col width="8" customWidth="1" min="28" max="28"/>
+    <col width="8" customWidth="1" min="29" max="29"/>
+    <col width="8" customWidth="1" min="30" max="30"/>
+    <col width="7" customWidth="1" min="31" max="31"/>
+    <col width="8" customWidth="1" min="32" max="32"/>
+    <col width="7" customWidth="1" min="33" max="33"/>
+    <col width="8" customWidth="1" min="34" max="34"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -655,28 +655,28 @@
         <v>44796.50694444445</v>
       </c>
       <c r="B2" s="4" t="n">
-        <v>19.22</v>
+        <v>19.217</v>
       </c>
       <c r="C2" s="4" t="n">
-        <v>12.9</v>
+        <v>12.901</v>
       </c>
       <c r="D2" s="4" t="n">
-        <v>4.04</v>
+        <v>4.042</v>
       </c>
       <c r="E2" s="4" t="n">
-        <v>40.81</v>
+        <v>40.812</v>
       </c>
       <c r="F2" s="4" t="n">
-        <v>32.82</v>
+        <v>32.818</v>
       </c>
       <c r="G2" s="4" t="n">
-        <v>15.12</v>
+        <v>15.123</v>
       </c>
       <c r="H2" s="4" t="n">
-        <v>47.99</v>
+        <v>47.986</v>
       </c>
       <c r="I2" s="4" t="n">
-        <v>23.27</v>
+        <v>23.269</v>
       </c>
       <c r="J2" s="4" t="n">
         <v>9.710000000000001</v>
@@ -685,19 +685,19 @@
         <v>14.67</v>
       </c>
       <c r="L2" s="4" t="n">
-        <v>16.08</v>
+        <v>16.076</v>
       </c>
       <c r="M2" s="4" t="n">
-        <v>16.74</v>
+        <v>16.742</v>
       </c>
       <c r="N2" s="4" t="n">
-        <v>4.83</v>
+        <v>4.827</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>15.04</v>
+        <v>15.038</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>20.99</v>
+        <v>20.994</v>
       </c>
       <c r="Q2" s="4" t="n">
         <v>12.85</v>
@@ -706,52 +706,52 @@
         <v>3.46</v>
       </c>
       <c r="S2" s="4" t="n">
-        <v>2.25</v>
+        <v>2.249</v>
       </c>
       <c r="T2" s="4" t="n">
-        <v>221.55</v>
+        <v>221.547</v>
       </c>
       <c r="U2" s="4" t="n">
         <v>41.81</v>
       </c>
       <c r="V2" s="4" t="n">
-        <v>13.88</v>
+        <v>13.881</v>
       </c>
       <c r="W2" s="4" t="n">
-        <v>27.55</v>
+        <v>27.553</v>
       </c>
       <c r="X2" s="4" t="n">
-        <v>14.06</v>
+        <v>14.055</v>
       </c>
       <c r="Y2" s="4" t="n">
         <v>3.03</v>
       </c>
       <c r="Z2" s="4" t="n">
-        <v>24.31</v>
+        <v>24.312</v>
       </c>
       <c r="AA2" s="4" t="n">
-        <v>12.26</v>
+        <v>12.261</v>
       </c>
       <c r="AB2" s="4" t="n">
-        <v>11.13</v>
+        <v>11.125</v>
       </c>
       <c r="AC2" s="4" t="n">
-        <v>13.05</v>
+        <v>13.047</v>
       </c>
       <c r="AD2" s="4" t="n">
-        <v>16.56</v>
+        <v>16.565</v>
       </c>
       <c r="AE2" s="4" t="n">
-        <v>3.46</v>
+        <v>3.456</v>
       </c>
       <c r="AF2" s="4" t="n">
-        <v>42.56</v>
+        <v>42.557</v>
       </c>
       <c r="AG2" s="4" t="n">
-        <v>7.65</v>
+        <v>7.647</v>
       </c>
       <c r="AH2" s="4" t="n">
-        <v>17.35</v>
+        <v>17.354</v>
       </c>
     </row>
     <row r="3">
@@ -759,103 +759,103 @@
         <v>44796.51388888889</v>
       </c>
       <c r="B3" s="4" t="n">
-        <v>14.41</v>
+        <v>14.413</v>
       </c>
       <c r="C3" s="4" t="n">
-        <v>10.11</v>
+        <v>10.114</v>
       </c>
       <c r="D3" s="4" t="n">
-        <v>1.74</v>
+        <v>1.743</v>
       </c>
       <c r="E3" s="4" t="n">
-        <v>31.11</v>
+        <v>31.106</v>
       </c>
       <c r="F3" s="4" t="n">
-        <v>25.12</v>
+        <v>25.125</v>
       </c>
       <c r="G3" s="4" t="n">
-        <v>11.34</v>
+        <v>11.343</v>
       </c>
       <c r="H3" s="4" t="n">
-        <v>44.4</v>
+        <v>44.404</v>
       </c>
       <c r="I3" s="4" t="n">
-        <v>17.45</v>
+        <v>17.452</v>
       </c>
       <c r="J3" s="4" t="n">
-        <v>7.51</v>
+        <v>7.507</v>
       </c>
       <c r="K3" s="4" t="n">
         <v>11.08</v>
       </c>
       <c r="L3" s="4" t="n">
-        <v>12.44</v>
+        <v>12.441</v>
       </c>
       <c r="M3" s="4" t="n">
-        <v>12.98</v>
+        <v>12.978</v>
       </c>
       <c r="N3" s="4" t="n">
-        <v>3.62</v>
+        <v>3.624</v>
       </c>
       <c r="O3" s="4" t="n">
-        <v>11.28</v>
+        <v>11.279</v>
       </c>
       <c r="P3" s="4" t="n">
-        <v>15.87</v>
+        <v>15.873</v>
       </c>
       <c r="Q3" s="4" t="n">
-        <v>9.75</v>
+        <v>9.754</v>
       </c>
       <c r="R3" s="4" t="n">
-        <v>1.54</v>
+        <v>1.538</v>
       </c>
       <c r="S3" s="4" t="n">
-        <v>1.01</v>
+        <v>1.006</v>
       </c>
       <c r="T3" s="4" t="n">
-        <v>164.36</v>
+        <v>164.361</v>
       </c>
       <c r="U3" s="4" t="n">
-        <v>31.59</v>
+        <v>31.592</v>
       </c>
       <c r="V3" s="4" t="n">
-        <v>10.41</v>
+        <v>10.411</v>
       </c>
       <c r="W3" s="4" t="n">
-        <v>20.91</v>
+        <v>20.913</v>
       </c>
       <c r="X3" s="4" t="n">
-        <v>10.85</v>
+        <v>10.847</v>
       </c>
       <c r="Y3" s="4" t="n">
-        <v>2.06</v>
+        <v>2.056</v>
       </c>
       <c r="Z3" s="4" t="n">
-        <v>21.49</v>
+        <v>21.485</v>
       </c>
       <c r="AA3" s="4" t="n">
-        <v>9.199999999999999</v>
+        <v>9.196</v>
       </c>
       <c r="AB3" s="4" t="n">
-        <v>8.34</v>
+        <v>8.345000000000001</v>
       </c>
       <c r="AC3" s="4" t="n">
-        <v>9.779999999999999</v>
+        <v>9.779</v>
       </c>
       <c r="AD3" s="4" t="n">
-        <v>12.88</v>
+        <v>12.883</v>
       </c>
       <c r="AE3" s="4" t="n">
-        <v>1.27</v>
+        <v>1.265</v>
       </c>
       <c r="AF3" s="4" t="n">
         <v>40.43</v>
       </c>
       <c r="AG3" s="4" t="n">
-        <v>5.75</v>
+        <v>5.746</v>
       </c>
       <c r="AH3" s="4" t="n">
-        <v>13.02</v>
+        <v>13.016</v>
       </c>
     </row>
     <row r="4">
@@ -863,25 +863,25 @@
         <v>44796.52083333334</v>
       </c>
       <c r="B4" s="4" t="n">
-        <v>13.93</v>
+        <v>13.932</v>
       </c>
       <c r="C4" s="4" t="n">
-        <v>10</v>
+        <v>10.003</v>
       </c>
       <c r="D4" s="4" t="n">
-        <v>1.24</v>
+        <v>1.238</v>
       </c>
       <c r="E4" s="4" t="n">
-        <v>30.19</v>
+        <v>30.192</v>
       </c>
       <c r="F4" s="4" t="n">
-        <v>24.51</v>
+        <v>24.512</v>
       </c>
       <c r="G4" s="4" t="n">
-        <v>10.96</v>
+        <v>10.965</v>
       </c>
       <c r="H4" s="4" t="n">
-        <v>43.03</v>
+        <v>43.026</v>
       </c>
       <c r="I4" s="4" t="n">
         <v>16.87</v>
@@ -890,76 +890,76 @@
         <v>7.36</v>
       </c>
       <c r="K4" s="4" t="n">
-        <v>10.84</v>
+        <v>10.845</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>12.11</v>
+        <v>12.114</v>
       </c>
       <c r="M4" s="4" t="n">
-        <v>12.69</v>
+        <v>12.686</v>
       </c>
       <c r="N4" s="4" t="n">
-        <v>3.5</v>
+        <v>3.503</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>10.9</v>
+        <v>10.903</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>15.41</v>
       </c>
       <c r="Q4" s="4" t="n">
-        <v>9.359999999999999</v>
+        <v>9.356999999999999</v>
       </c>
       <c r="R4" s="4" t="n">
         <v>1.03</v>
       </c>
       <c r="S4" s="4" t="n">
-        <v>0.74</v>
+        <v>0.745</v>
       </c>
       <c r="T4" s="4" t="n">
-        <v>158.63</v>
+        <v>158.632</v>
       </c>
       <c r="U4" s="4" t="n">
-        <v>30.51</v>
+        <v>30.509</v>
       </c>
       <c r="V4" s="4" t="n">
-        <v>10.06</v>
+        <v>10.064</v>
       </c>
       <c r="W4" s="4" t="n">
-        <v>20.31</v>
+        <v>20.313</v>
       </c>
       <c r="X4" s="4" t="n">
-        <v>10.61</v>
+        <v>10.606</v>
       </c>
       <c r="Y4" s="4" t="n">
-        <v>1.83</v>
+        <v>1.829</v>
       </c>
       <c r="Z4" s="4" t="n">
-        <v>20.72</v>
+        <v>20.718</v>
       </c>
       <c r="AA4" s="4" t="n">
-        <v>8.890000000000001</v>
+        <v>8.888999999999999</v>
       </c>
       <c r="AB4" s="4" t="n">
-        <v>8</v>
+        <v>7.997</v>
       </c>
       <c r="AC4" s="4" t="n">
         <v>9.380000000000001</v>
       </c>
       <c r="AD4" s="4" t="n">
-        <v>12.61</v>
+        <v>12.614</v>
       </c>
       <c r="AE4" s="4" t="n">
-        <v>0.77</v>
+        <v>0.773</v>
       </c>
       <c r="AF4" s="4" t="n">
-        <v>39.03</v>
+        <v>39.026</v>
       </c>
       <c r="AG4" s="4" t="n">
-        <v>5.59</v>
+        <v>5.591</v>
       </c>
       <c r="AH4" s="4" t="n">
-        <v>12.58</v>
+        <v>12.582</v>
       </c>
     </row>
     <row r="5">
@@ -1064,110 +1064,6 @@
       </c>
       <c r="AH5" s="4" t="n">
         <v>8.68</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44796.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>14.16</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>34.22</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>56.61</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.27</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.39</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>221.58</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28.23</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.79</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.57</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>51.27</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>17.35</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_115.xlsx
+++ b/DATA_goal/Junction_Flooding_115.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH5"/>
+  <dimension ref="A1:AH6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,103 +967,207 @@
         <v>44796.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.609999999999999</v>
+        <v>9.609</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.88</v>
+        <v>6.875</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.88</v>
+        <v>0.878</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.83</v>
+        <v>20.834</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>16.86</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.56</v>
+        <v>7.562</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.17</v>
+        <v>31.172</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.63</v>
+        <v>11.635</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.07</v>
+        <v>5.073</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.42</v>
+        <v>7.425</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.369999999999999</v>
+        <v>8.369</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.76</v>
+        <v>8.756</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.42</v>
+        <v>2.417</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.52</v>
+        <v>7.519</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.63</v>
+        <v>10.626</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.49</v>
+        <v>6.493</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.76</v>
+        <v>0.756</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.51</v>
+        <v>0.514</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.13</v>
+        <v>107.131</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.1</v>
+        <v>21.098</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.94</v>
+        <v>6.941</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.02</v>
+        <v>14.018</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>7.31</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.29</v>
+        <v>1.292</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.82</v>
+        <v>14.824</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.13</v>
+        <v>6.131</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.53</v>
+        <v>5.532</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.49</v>
+        <v>6.485</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.710000000000001</v>
+        <v>8.714</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.5570000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>28.35</v>
+        <v>28.354</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.84</v>
+        <v>3.837</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.68</v>
+        <v>8.678000000000001</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="3" t="n">
+        <v>44796.53471064815</v>
+      </c>
+      <c r="B6" s="4" t="n">
+        <v>19.22</v>
+      </c>
+      <c r="C6" s="4" t="n">
+        <v>14.16</v>
+      </c>
+      <c r="D6" s="4" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="E6" s="4" t="n">
+        <v>41.76</v>
+      </c>
+      <c r="F6" s="4" t="n">
+        <v>34.22</v>
+      </c>
+      <c r="G6" s="4" t="n">
+        <v>15.12</v>
+      </c>
+      <c r="H6" s="4" t="n">
+        <v>56.61</v>
+      </c>
+      <c r="I6" s="4" t="n">
+        <v>23.27</v>
+      </c>
+      <c r="J6" s="4" t="n">
+        <v>10.32</v>
+      </c>
+      <c r="K6" s="4" t="n">
+        <v>15.29</v>
+      </c>
+      <c r="L6" s="4" t="n">
+        <v>16.77</v>
+      </c>
+      <c r="M6" s="4" t="n">
+        <v>17.66</v>
+      </c>
+      <c r="N6" s="4" t="n">
+        <v>4.83</v>
+      </c>
+      <c r="O6" s="4" t="n">
+        <v>15.04</v>
+      </c>
+      <c r="P6" s="4" t="n">
+        <v>21.39</v>
+      </c>
+      <c r="Q6" s="4" t="n">
+        <v>12.68</v>
+      </c>
+      <c r="R6" s="4" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S6" s="4" t="n">
+        <v>0.74</v>
+      </c>
+      <c r="T6" s="4" t="n">
+        <v>221.58</v>
+      </c>
+      <c r="U6" s="4" t="n">
+        <v>42</v>
+      </c>
+      <c r="V6" s="4" t="n">
+        <v>13.88</v>
+      </c>
+      <c r="W6" s="4" t="n">
+        <v>28.23</v>
+      </c>
+      <c r="X6" s="4" t="n">
+        <v>14.81</v>
+      </c>
+      <c r="Y6" s="4" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="Z6" s="4" t="n">
+        <v>27.79</v>
+      </c>
+      <c r="AA6" s="4" t="n">
+        <v>12.26</v>
+      </c>
+      <c r="AB6" s="4" t="n">
+        <v>10.88</v>
+      </c>
+      <c r="AC6" s="4" t="n">
+        <v>12.79</v>
+      </c>
+      <c r="AD6" s="4" t="n">
+        <v>17.57</v>
+      </c>
+      <c r="AE6" s="4" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AF6" s="4" t="n">
+        <v>51.27</v>
+      </c>
+      <c r="AG6" s="4" t="n">
+        <v>7.81</v>
+      </c>
+      <c r="AH6" s="4" t="n">
+        <v>17.35</v>
       </c>
     </row>
   </sheetData>

--- a/DATA_goal/Junction_Flooding_115.xlsx
+++ b/DATA_goal/Junction_Flooding_115.xlsx
@@ -434,7 +434,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:AH5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -967,207 +967,103 @@
         <v>44796.52777777778</v>
       </c>
       <c r="B5" s="4" t="n">
-        <v>9.609</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="C5" s="4" t="n">
-        <v>6.875</v>
+        <v>6.88</v>
       </c>
       <c r="D5" s="4" t="n">
-        <v>0.878</v>
+        <v>0.88</v>
       </c>
       <c r="E5" s="4" t="n">
-        <v>20.834</v>
+        <v>20.83</v>
       </c>
       <c r="F5" s="4" t="n">
         <v>16.86</v>
       </c>
       <c r="G5" s="4" t="n">
-        <v>7.562</v>
+        <v>7.56</v>
       </c>
       <c r="H5" s="4" t="n">
-        <v>31.172</v>
+        <v>31.17</v>
       </c>
       <c r="I5" s="4" t="n">
-        <v>11.635</v>
+        <v>11.63</v>
       </c>
       <c r="J5" s="4" t="n">
-        <v>5.073</v>
+        <v>5.07</v>
       </c>
       <c r="K5" s="4" t="n">
-        <v>7.425</v>
+        <v>7.42</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>8.369</v>
+        <v>8.369999999999999</v>
       </c>
       <c r="M5" s="4" t="n">
-        <v>8.756</v>
+        <v>8.76</v>
       </c>
       <c r="N5" s="4" t="n">
-        <v>2.417</v>
+        <v>2.42</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>7.519</v>
+        <v>7.52</v>
       </c>
       <c r="P5" s="4" t="n">
-        <v>10.626</v>
+        <v>10.63</v>
       </c>
       <c r="Q5" s="4" t="n">
-        <v>6.493</v>
+        <v>6.49</v>
       </c>
       <c r="R5" s="4" t="n">
-        <v>0.756</v>
+        <v>0.76</v>
       </c>
       <c r="S5" s="4" t="n">
-        <v>0.514</v>
+        <v>0.51</v>
       </c>
       <c r="T5" s="4" t="n">
-        <v>107.131</v>
+        <v>107.13</v>
       </c>
       <c r="U5" s="4" t="n">
-        <v>21.098</v>
+        <v>21.1</v>
       </c>
       <c r="V5" s="4" t="n">
-        <v>6.941</v>
+        <v>6.94</v>
       </c>
       <c r="W5" s="4" t="n">
-        <v>14.018</v>
+        <v>14.02</v>
       </c>
       <c r="X5" s="4" t="n">
         <v>7.31</v>
       </c>
       <c r="Y5" s="4" t="n">
-        <v>1.292</v>
+        <v>1.29</v>
       </c>
       <c r="Z5" s="4" t="n">
-        <v>14.824</v>
+        <v>14.82</v>
       </c>
       <c r="AA5" s="4" t="n">
-        <v>6.131</v>
+        <v>6.13</v>
       </c>
       <c r="AB5" s="4" t="n">
-        <v>5.532</v>
+        <v>5.53</v>
       </c>
       <c r="AC5" s="4" t="n">
-        <v>6.485</v>
+        <v>6.49</v>
       </c>
       <c r="AD5" s="4" t="n">
-        <v>8.714</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="AE5" s="4" t="n">
-        <v>0.5570000000000001</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="AF5" s="4" t="n">
-        <v>28.354</v>
+        <v>28.35</v>
       </c>
       <c r="AG5" s="4" t="n">
-        <v>3.837</v>
+        <v>3.84</v>
       </c>
       <c r="AH5" s="4" t="n">
-        <v>8.678000000000001</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3" t="n">
-        <v>44796.53471064815</v>
-      </c>
-      <c r="B6" s="4" t="n">
-        <v>19.22</v>
-      </c>
-      <c r="C6" s="4" t="n">
-        <v>14.16</v>
-      </c>
-      <c r="D6" s="4" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="E6" s="4" t="n">
-        <v>41.76</v>
-      </c>
-      <c r="F6" s="4" t="n">
-        <v>34.22</v>
-      </c>
-      <c r="G6" s="4" t="n">
-        <v>15.12</v>
-      </c>
-      <c r="H6" s="4" t="n">
-        <v>56.61</v>
-      </c>
-      <c r="I6" s="4" t="n">
-        <v>23.27</v>
-      </c>
-      <c r="J6" s="4" t="n">
-        <v>10.32</v>
-      </c>
-      <c r="K6" s="4" t="n">
-        <v>15.29</v>
-      </c>
-      <c r="L6" s="4" t="n">
-        <v>16.77</v>
-      </c>
-      <c r="M6" s="4" t="n">
-        <v>17.66</v>
-      </c>
-      <c r="N6" s="4" t="n">
-        <v>4.83</v>
-      </c>
-      <c r="O6" s="4" t="n">
-        <v>15.04</v>
-      </c>
-      <c r="P6" s="4" t="n">
-        <v>21.39</v>
-      </c>
-      <c r="Q6" s="4" t="n">
-        <v>12.68</v>
-      </c>
-      <c r="R6" s="4" t="n">
-        <v>0.7</v>
-      </c>
-      <c r="S6" s="4" t="n">
-        <v>0.74</v>
-      </c>
-      <c r="T6" s="4" t="n">
-        <v>221.58</v>
-      </c>
-      <c r="U6" s="4" t="n">
-        <v>42</v>
-      </c>
-      <c r="V6" s="4" t="n">
-        <v>13.88</v>
-      </c>
-      <c r="W6" s="4" t="n">
-        <v>28.23</v>
-      </c>
-      <c r="X6" s="4" t="n">
-        <v>14.81</v>
-      </c>
-      <c r="Y6" s="4" t="n">
-        <v>2.22</v>
-      </c>
-      <c r="Z6" s="4" t="n">
-        <v>27.79</v>
-      </c>
-      <c r="AA6" s="4" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="AB6" s="4" t="n">
-        <v>10.88</v>
-      </c>
-      <c r="AC6" s="4" t="n">
-        <v>12.79</v>
-      </c>
-      <c r="AD6" s="4" t="n">
-        <v>17.57</v>
-      </c>
-      <c r="AE6" s="4" t="n">
-        <v>0.43</v>
-      </c>
-      <c r="AF6" s="4" t="n">
-        <v>51.27</v>
-      </c>
-      <c r="AG6" s="4" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="AH6" s="4" t="n">
-        <v>17.35</v>
+        <v>8.68</v>
       </c>
     </row>
   </sheetData>
